--- a/unit_testing/APA_tables/output tables/59_spss_mr_minimalstats.xlsx
+++ b/unit_testing/APA_tables/output tables/59_spss_mr_minimalstats.xlsx
@@ -413,7 +413,7 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
-          <t>pvalues</t>
+          <t>p</t>
         </is>
       </c>
     </row>
